--- a/document.xlsx
+++ b/document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17655" windowHeight="4320"/>
+    <workbookView windowWidth="21216" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>前端组件大集合</t>
   </si>
@@ -34,7 +34,7 @@
     <t>类型</t>
   </si>
   <si>
-    <t>可选值</t>
+    <t>示例值</t>
   </si>
   <si>
     <t>默认值</t>
@@ -46,9 +46,6 @@
     <t>滚动组件包含下拉加载上拉刷新功能</t>
   </si>
   <si>
-    <t>props</t>
-  </si>
-  <si>
     <t>options</t>
   </si>
   <si>
@@ -143,6 +140,84 @@
   </si>
   <si>
     <t>#278add</t>
+  </si>
+  <si>
+    <t>tk-form</t>
+  </si>
+  <si>
+    <t>表单组件</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>配置form表单</t>
+  </si>
+  <si>
+    <t>name:String,</t>
+  </si>
+  <si>
+    <t>placeholder:String,</t>
+  </si>
+  <si>
+    <t>maxlength:String,</t>
+  </si>
+  <si>
+    <t>model:String</t>
+  </si>
+  <si>
+    <t>selectTime:Boolean</t>
+  </si>
+  <si>
+    <t>select:Array</t>
+  </si>
+  <si>
+    <t>hasSelect:Array,</t>
+  </si>
+  <si>
+    <t>selects:String</t>
+  </si>
+  <si>
+    <t>tk-switch</t>
+  </si>
+  <si>
+    <t>开关组件</t>
+  </si>
+  <si>
+    <t>绑定的开关值</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>tk-detail-photo</t>
+  </si>
+  <si>
+    <t>图片显示及放大</t>
+  </si>
+  <si>
+    <t>绑定的数据源</t>
+  </si>
+  <si>
+    <t>src:String</t>
+  </si>
+  <si>
+    <t>tk-upload-photo</t>
+  </si>
+  <si>
+    <t>图片上传</t>
+  </si>
+  <si>
+    <t>tk-upload-audio</t>
+  </si>
+  <si>
+    <t>音频上传</t>
+  </si>
+  <si>
+    <t>tk-upload-video</t>
+  </si>
+  <si>
+    <t>视频上传</t>
   </si>
 </sst>
 </file>
@@ -150,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,6 +246,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -180,35 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,8 +300,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +337,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -272,37 +378,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +392,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,30 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,17 +612,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -594,6 +634,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,6 +663,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +703,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -763,13 +838,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,265 +1165,373 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="7" max="7" width="58.25" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="33.6296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="31.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C15:C18"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
